--- a/src/main/resources/result/govno.xlsx
+++ b/src/main/resources/result/govno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="16">
   <si>
     <t>1136э1</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Конференц-зал</t>
+  </si>
+  <si>
+    <t>Практическая аудитория (лаборатория)</t>
   </si>
   <si>
     <t>-</t>
@@ -112,7 +115,7 @@
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="n">
         <v>66.0</v>
@@ -121,72 +124,72 @@
         <v>33.0</v>
       </c>
       <c r="J1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
         <v>30.0</v>
@@ -195,75 +198,75 @@
         <v>15.0</v>
       </c>
       <c r="J2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>24.0</v>
@@ -272,99 +275,378 @@
         <v>12.0</v>
       </c>
       <c r="J3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="J4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" t="s">
+        <v>7</v>
+      </c>
+      <c r="X5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G6" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="X6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>7</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>7</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
